--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_2_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_2_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-17402.97378277007</v>
+        <v>-19290.55529917252</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800618</v>
       </c>
     </row>
     <row r="8">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,13 +668,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>283.5338095859802</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>160.9020127260048</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>33.42595480754875</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,13 +826,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>101.7806877295493</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>334.3399724389686</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>209.9408984070127</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>126.0887386816666</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>200.5196897930038</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>268.0457851141063</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>46.37804505797949</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1345,16 +1345,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>189.5968436493439</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896924</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,19 +1534,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>4.308004808192674</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>172.793599626125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.272891771009</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>228.1679485859393</v>
+        <v>279.9095487628773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274162</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>118.4898845065123</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>49.28224439331645</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,7 +2245,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2296,13 +2296,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>164.9817215722489</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>45.75333204430461</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>127.8017093406822</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>69.08435319695941</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2719,13 +2719,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2764,19 +2764,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>14.73664328357074</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>178.6711119793471</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,19 +2947,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533801</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965513</v>
+        <v>93.41221638965521</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801194</v>
+        <v>91.23070601801203</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437402</v>
+        <v>90.2177913943741</v>
       </c>
       <c r="G31" t="n">
         <v>111.2903118348204</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571475</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,22 +2998,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.717553355046</v>
+        <v>142.7175533550461</v>
       </c>
       <c r="T31" t="n">
-        <v>166.344304429832</v>
+        <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>183.3203621816752</v>
+        <v>231.0340957700202</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952708</v>
+        <v>92.39307747256753</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080338</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604799</v>
+        <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
         <v>163.3813967235376</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463068</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3566,7 +3566,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898715</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1624.753525949915</v>
+        <v>1584.674208896763</v>
       </c>
       <c r="C2" t="n">
-        <v>1624.753525949915</v>
+        <v>1584.674208896763</v>
       </c>
       <c r="D2" t="n">
-        <v>1624.753525949915</v>
+        <v>1584.674208896763</v>
       </c>
       <c r="E2" t="n">
-        <v>1238.965273351671</v>
+        <v>1198.885956298519</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>787.900051508911</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>369.9362434070979</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V2" t="n">
-        <v>2388.358616186807</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W2" t="n">
-        <v>2388.358616186807</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="X2" t="n">
-        <v>2014.892857925727</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="Y2" t="n">
-        <v>1624.753525949915</v>
+        <v>1971.274048960885</v>
       </c>
     </row>
     <row r="3">
@@ -4398,25 +4398,25 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>325.6879402326646</v>
+        <v>245.45494510253</v>
       </c>
       <c r="C4" t="n">
-        <v>156.7517573047577</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="D4" t="n">
-        <v>156.7517573047577</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E4" t="n">
-        <v>156.7517573047577</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>245.45494510253</v>
       </c>
       <c r="Y4" t="n">
-        <v>507.3364050629043</v>
+        <v>245.45494510253</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1327.372931623164</v>
+        <v>1297.230130518035</v>
       </c>
       <c r="C5" t="n">
-        <v>958.4104146827526</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D5" t="n">
-        <v>600.1447160760022</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E5" t="n">
-        <v>600.1447160760022</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>593.1992153267987</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,10 +4568,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2048.575150942547</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>1717.512263598976</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W5" t="n">
-        <v>1717.512263598976</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="X5" t="n">
-        <v>1717.512263598976</v>
+        <v>1683.829970582156</v>
       </c>
       <c r="Y5" t="n">
-        <v>1327.372931623164</v>
+        <v>1683.829970582156</v>
       </c>
     </row>
     <row r="6">
@@ -4650,16 +4650,16 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942404</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942404</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942404</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="U7" t="n">
-        <v>550.5654064942404</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="V7" t="n">
-        <v>348.0202652891861</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W7" t="n">
-        <v>348.0202652891861</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1307.111989013772</v>
+        <v>1129.234822142136</v>
       </c>
       <c r="C8" t="n">
-        <v>1307.111989013772</v>
+        <v>760.2723052017247</v>
       </c>
       <c r="D8" t="n">
-        <v>1307.111989013772</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="E8" t="n">
-        <v>1307.111989013772</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F8" t="n">
-        <v>896.126084224165</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G8" t="n">
-        <v>478.1622761223518</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4808,7 +4808,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2650.302580858647</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2474.125093172817</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2474.125093172817</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520778</v>
+        <v>2220.363307810909</v>
       </c>
       <c r="V8" t="n">
-        <v>2423.485734520778</v>
+        <v>1889.300420467338</v>
       </c>
       <c r="W8" t="n">
-        <v>2070.717079250664</v>
+        <v>1889.300420467338</v>
       </c>
       <c r="X8" t="n">
-        <v>1697.251320989584</v>
+        <v>1515.834662206258</v>
       </c>
       <c r="Y8" t="n">
-        <v>1307.111989013772</v>
+        <v>1515.834662206258</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4993,13 +4993,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610022</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V10" t="n">
-        <v>184.2708856551153</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X10" t="n">
         <v>53.94298182036445</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805463</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.284191751409</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5115,25 +5115,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>498.9056400965593</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>745.6707680030233</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>564.1830073829216</v>
+        <v>842.8697743566707</v>
       </c>
       <c r="C13" t="n">
-        <v>395.2468244550147</v>
+        <v>673.9335914287639</v>
       </c>
       <c r="D13" t="n">
-        <v>245.130185042679</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241986</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688101</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799394</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471221</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.60808497467</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980067</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.08282758575</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557906</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557906</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473458</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.210845262964</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.78763177146</v>
+        <v>1075.210845262964</v>
       </c>
       <c r="V13" t="n">
-        <v>1209.78763177146</v>
+        <v>1075.210845262964</v>
       </c>
       <c r="W13" t="n">
-        <v>920.3704617344997</v>
+        <v>1070.859325254688</v>
       </c>
       <c r="X13" t="n">
-        <v>920.3704617344997</v>
+        <v>842.8697743566707</v>
       </c>
       <c r="Y13" t="n">
-        <v>745.8314722131613</v>
+        <v>842.8697743566707</v>
       </c>
     </row>
     <row r="14">
@@ -5255,52 +5255,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155881</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5352,28 +5352,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>412.6079778147081</v>
+        <v>391.6040140015124</v>
       </c>
       <c r="L15" t="n">
-        <v>659.3731057211721</v>
+        <v>638.3691419079764</v>
       </c>
       <c r="M15" t="n">
-        <v>966.6932390011339</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N15" t="n">
-        <v>1296.555866665167</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O15" t="n">
-        <v>1966.019627967826</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>674.6944526764913</v>
+        <v>564.4843764226426</v>
       </c>
       <c r="C16" t="n">
-        <v>505.7582697485844</v>
+        <v>395.5481934947357</v>
       </c>
       <c r="D16" t="n">
-        <v>355.6416303362487</v>
+        <v>395.5481934947357</v>
       </c>
       <c r="E16" t="n">
-        <v>355.6416303362487</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
         <v>507.4972331799364</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1157.368491780396</v>
+        <v>792.4739273206601</v>
       </c>
       <c r="V16" t="n">
-        <v>902.6840035745087</v>
+        <v>792.4739273206601</v>
       </c>
       <c r="W16" t="n">
-        <v>902.6840035745087</v>
+        <v>792.47392732066</v>
       </c>
       <c r="X16" t="n">
-        <v>674.6944526764913</v>
+        <v>564.4843764226426</v>
       </c>
       <c r="Y16" t="n">
-        <v>674.6944526764913</v>
+        <v>564.4843764226426</v>
       </c>
     </row>
     <row r="17">
@@ -5492,40 +5492,40 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155897</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080548</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822471</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5534,7 +5534,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014293</v>
@@ -5595,22 +5595,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>216.903843487066</v>
+        <v>465.2890973945349</v>
       </c>
       <c r="C19" t="n">
-        <v>216.903843487066</v>
+        <v>465.2890973945349</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>315.1724579821991</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028587</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557903</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.787631771461</v>
+        <v>874.927113122792</v>
       </c>
       <c r="V19" t="n">
-        <v>955.103143565574</v>
+        <v>874.927113122792</v>
       </c>
       <c r="W19" t="n">
-        <v>665.6859735286134</v>
+        <v>874.927113122792</v>
       </c>
       <c r="X19" t="n">
-        <v>437.6964226305961</v>
+        <v>646.9375622247746</v>
       </c>
       <c r="Y19" t="n">
-        <v>216.903843487066</v>
+        <v>646.9375622247746</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5762,40 +5762,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>861.4909633328886</v>
+        <v>563.1598612984388</v>
       </c>
       <c r="C22" t="n">
-        <v>692.5547804049818</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D22" t="n">
-        <v>542.438140992646</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E22" t="n">
-        <v>394.5250474102529</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.787631771461</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="V22" t="n">
-        <v>1043.139428163128</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="W22" t="n">
-        <v>1043.139428163128</v>
+        <v>609.3753482118778</v>
       </c>
       <c r="X22" t="n">
-        <v>1043.139428163128</v>
+        <v>563.1598612984388</v>
       </c>
       <c r="Y22" t="n">
-        <v>1043.139428163128</v>
+        <v>563.1598612984388</v>
       </c>
     </row>
     <row r="23">
@@ -5966,67 +5966,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805474</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6063,31 +6063,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>816.7950850315608</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>395.2459100858516</v>
+        <v>509.2863307027308</v>
       </c>
       <c r="C25" t="n">
-        <v>226.3097271579446</v>
+        <v>509.2863307027308</v>
       </c>
       <c r="D25" t="n">
-        <v>226.3097271579446</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E25" t="n">
-        <v>226.3097271579446</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F25" t="n">
-        <v>226.3097271579446</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6151,7 +6151,7 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M25" t="n">
         <v>779.0639759471192</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>1098.712528333286</v>
+        <v>1429.134095611479</v>
       </c>
       <c r="V25" t="n">
-        <v>844.0280401273991</v>
+        <v>1429.134095611479</v>
       </c>
       <c r="W25" t="n">
-        <v>844.0280401273991</v>
+        <v>1139.716925574518</v>
       </c>
       <c r="X25" t="n">
-        <v>616.0384892293818</v>
+        <v>911.7273746765006</v>
       </c>
       <c r="Y25" t="n">
-        <v>395.2459100858516</v>
+        <v>690.9347955329705</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6236,7 +6236,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6245,31 +6245,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6300,7 +6300,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6309,22 +6309,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>953.6472828615139</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>564.1830073829217</v>
+        <v>584.4452354807079</v>
       </c>
       <c r="C28" t="n">
-        <v>395.2468244550148</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D28" t="n">
-        <v>245.130185042679</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557903</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557903</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V28" t="n">
-        <v>1484.03077229167</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W28" t="n">
-        <v>1194.613602254709</v>
+        <v>985.7136853104472</v>
       </c>
       <c r="X28" t="n">
-        <v>966.6240513566916</v>
+        <v>805.237814624238</v>
       </c>
       <c r="Y28" t="n">
-        <v>745.8314722131614</v>
+        <v>584.4452354807079</v>
       </c>
     </row>
     <row r="29">
@@ -6440,40 +6440,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6482,28 +6482,28 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6543,25 +6543,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1771.104817265284</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2050.644882483981</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>543.0423586043028</v>
+        <v>600.4439501541581</v>
       </c>
       <c r="C31" t="n">
-        <v>543.0423586043028</v>
+        <v>487.268632507622</v>
       </c>
       <c r="D31" t="n">
-        <v>448.6865844733379</v>
+        <v>392.9128583766571</v>
       </c>
       <c r="E31" t="n">
-        <v>356.5343561723158</v>
+        <v>300.7606300756348</v>
       </c>
       <c r="F31" t="n">
-        <v>265.4052739557764</v>
+        <v>209.6315478590952</v>
       </c>
       <c r="G31" t="n">
-        <v>152.9908175569674</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569674</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864676</v>
+        <v>164.2510079864674</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933507</v>
+        <v>369.0876362933504</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667515</v>
+        <v>671.4509053667512</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962059</v>
+        <v>997.6688721962055</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353694</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021648</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056076</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056076</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="S31" t="n">
-        <v>1791.966918252999</v>
+        <v>1791.966918252998</v>
       </c>
       <c r="T31" t="n">
-        <v>1623.942368323876</v>
+        <v>1623.942368323875</v>
       </c>
       <c r="U31" t="n">
-        <v>1438.770285312083</v>
+        <v>1390.574594818804</v>
       </c>
       <c r="V31" t="n">
-        <v>1239.846662387567</v>
+        <v>1297.248253937422</v>
       </c>
       <c r="W31" t="n">
-        <v>1006.190357631977</v>
+        <v>1063.591949181833</v>
       </c>
       <c r="X31" t="n">
-        <v>833.9616720153308</v>
+        <v>891.3632635651861</v>
       </c>
       <c r="Y31" t="n">
-        <v>668.9299581531716</v>
+        <v>726.3315497030269</v>
       </c>
     </row>
     <row r="32">
@@ -6674,37 +6674,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6713,37 +6713,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>638.3691419079764</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982967</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="35">
@@ -6914,22 +6914,22 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028587</v>
@@ -6938,10 +6938,10 @@
         <v>365.8813331823794</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515098</v>
@@ -6950,7 +6950,7 @@
         <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
         <v>4454.632848899128</v>
@@ -6962,19 +6962,19 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
         <v>3205.060556590537</v>
@@ -7014,28 +7014,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108322</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229663</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083198</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504505</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103122</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
         <v>394.6863306254957</v>
@@ -7132,13 +7132,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="38">
@@ -7169,7 +7169,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
@@ -7196,22 +7196,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
         <v>3205.060556590537</v>
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108336</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229675</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504515</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7351,7 +7351,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045213</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010323</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7388,28 +7388,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7436,22 +7436,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7491,19 +7491,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1771.104817265285</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2050.644882483982</v>
       </c>
       <c r="P42" t="n">
         <v>2317.834075963124</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108323</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229663</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506718</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G43" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103123</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7606,13 +7606,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045207</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010317</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="44">
@@ -7622,31 +7622,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7661,37 +7661,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="45">
@@ -7713,13 +7713,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
@@ -7728,25 +7728,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211722</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1427.741252113634</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1757.603879777667</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2037.143944996364</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E46" t="n">
         <v>398.9545963083204</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7810,7 +7810,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
   </sheetData>
@@ -8055,16 +8055,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>327.4218609627882</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8298,7 +8298,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415595</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,16 +8766,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>213.2603911806626</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504511</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -9003,28 +9003,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>104.8749102765748</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>159.0121003135241</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445217</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,13 +9243,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>392.1113620226434</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9258,10 +9258,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445217</v>
@@ -9401,7 +9401,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>189.0022427662466</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>20.63789864135413</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9729,16 +9729,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9957,10 +9957,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>32.78140656352423</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,7 +10191,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10200,19 +10200,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208064</v>
+        <v>73.53204524670059</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,16 +10425,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>104.8749102765748</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10662,10 +10662,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10677,16 +10677,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208064</v>
+        <v>285.1031356539331</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10841,10 +10841,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599049</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11139,7 +11139,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11148,13 +11148,13 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>62.79465928983132</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11376,13 +11376,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>87.16935584025367</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,25 +23464,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>282.2149935283983</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>45.79105372596979</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>58.06940381263802</v>
+        <v>6.327803635700031</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23887,22 +23887,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>30.12558851170003</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>97.15171825325271</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,7 +24133,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -24184,13 +24184,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>87.15592175157909</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>179.9563233447325</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>38.6918591226954</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -24418,13 +24418,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>217.1529992016179</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,13 +24607,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24652,19 +24652,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>237.4010000402573</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>47.03854340969006</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700706</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.7105717389789</v>
+        <v>93.71057173897898</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571486</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523555</v>
+        <v>54.76109577523567</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,10 +24892,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>47.71373358834494</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>104.5413092227033</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>6.608047442568932e-13</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1109139.243196448</v>
+        <v>1109139.243196449</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1109139.243196449</v>
+        <v>1109139.243196448</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1109139.243196449</v>
+        <v>1109139.243196448</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1109139.243196448</v>
+        <v>1109139.243196449</v>
       </c>
     </row>
     <row r="11">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>287364.6194524996</v>
+        <v>287364.6194524993</v>
       </c>
       <c r="C2" t="n">
         <v>287364.6194524994</v>
@@ -26320,40 +26320,40 @@
         <v>287364.6194524994</v>
       </c>
       <c r="E2" t="n">
-        <v>273720.3418163964</v>
+        <v>273720.3418163963</v>
       </c>
       <c r="F2" t="n">
         <v>273720.3418163963</v>
       </c>
       <c r="G2" t="n">
-        <v>273720.3418163962</v>
+        <v>273720.3418163963</v>
       </c>
       <c r="H2" t="n">
-        <v>273720.3418163963</v>
+        <v>273720.3418163959</v>
       </c>
       <c r="I2" t="n">
         <v>273720.3418163963</v>
       </c>
       <c r="J2" t="n">
-        <v>273720.3418163963</v>
+        <v>273720.3418163962</v>
       </c>
       <c r="K2" t="n">
         <v>284775.4961416893</v>
       </c>
       <c r="L2" t="n">
-        <v>287364.6194524989</v>
+        <v>287364.6194524994</v>
       </c>
       <c r="M2" t="n">
-        <v>287364.6194524994</v>
+        <v>287364.6194524991</v>
       </c>
       <c r="N2" t="n">
         <v>287364.6194524992</v>
       </c>
       <c r="O2" t="n">
-        <v>287364.6194524991</v>
+        <v>287364.6194524989</v>
       </c>
       <c r="P2" t="n">
-        <v>287364.6194524992</v>
+        <v>287364.619452499</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284579</v>
+        <v>44162.60530284571</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086672</v>
+        <v>10342.90680086683</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284579</v>
+        <v>44162.60530284574</v>
       </c>
     </row>
     <row r="4">
@@ -26427,10 +26427,10 @@
         <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143904</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.66962143906</v>
+        <v>15045.66962143908</v>
       </c>
       <c r="H4" t="n">
         <v>15045.6696214391</v>
@@ -26439,25 +26439,25 @@
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.66962143907</v>
+        <v>15045.66962143911</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.29213563568</v>
+        <v>33210.29213563566</v>
       </c>
       <c r="L4" t="n">
+        <v>37464.45686275956</v>
+      </c>
+      <c r="M4" t="n">
+        <v>37464.45686275958</v>
+      </c>
+      <c r="N4" t="n">
+        <v>37464.45686275959</v>
+      </c>
+      <c r="O4" t="n">
+        <v>37464.45686275956</v>
+      </c>
+      <c r="P4" t="n">
         <v>37464.45686275957</v>
-      </c>
-      <c r="M4" t="n">
-        <v>37464.45686275955</v>
-      </c>
-      <c r="N4" t="n">
-        <v>37464.45686275956</v>
-      </c>
-      <c r="O4" t="n">
-        <v>37464.45686275959</v>
-      </c>
-      <c r="P4" t="n">
-        <v>37464.45686275959</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26491,19 +26491,19 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022281</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-542237.296076677</v>
+        <v>-542237.2960766772</v>
       </c>
       <c r="C6" t="n">
         <v>47730.58313786736</v>
       </c>
       <c r="D6" t="n">
-        <v>47730.58313786727</v>
+        <v>47730.5831378673</v>
       </c>
       <c r="E6" t="n">
-        <v>-358472.6902306555</v>
+        <v>-358570.1493566279</v>
       </c>
       <c r="F6" t="n">
-        <v>166687.3462462405</v>
+        <v>166589.8871202684</v>
       </c>
       <c r="G6" t="n">
-        <v>166687.3462462405</v>
+        <v>166589.8871202684</v>
       </c>
       <c r="H6" t="n">
-        <v>166687.3462462406</v>
+        <v>166589.887120268</v>
       </c>
       <c r="I6" t="n">
-        <v>166687.3462462406</v>
+        <v>166589.8871202684</v>
       </c>
       <c r="J6" t="n">
-        <v>-9735.87294635232</v>
+        <v>-9833.3320723246</v>
       </c>
       <c r="K6" t="n">
-        <v>110774.390172985</v>
+        <v>110755.8964350508</v>
       </c>
       <c r="L6" t="n">
-        <v>141842.1499688472</v>
+        <v>141842.1499688476</v>
       </c>
       <c r="M6" t="n">
-        <v>17384.04153587722</v>
+        <v>17384.0415358769</v>
       </c>
       <c r="N6" t="n">
-        <v>152185.0567697143</v>
+        <v>152185.0567697142</v>
       </c>
       <c r="O6" t="n">
-        <v>152185.0567697142</v>
+        <v>152185.056769714</v>
       </c>
       <c r="P6" t="n">
-        <v>108022.4514668684</v>
+        <v>108022.4514668683</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964064</v>
       </c>
-      <c r="M2" t="n">
-        <v>68.13189012964064</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964068</v>
-      </c>
       <c r="O2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
@@ -26759,10 +26759,10 @@
         <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541003</v>
@@ -26774,10 +26774,10 @@
         <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="L2" t="n">
-        <v>12.9286335010834</v>
+        <v>12.92863350108353</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855718</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855713</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,13 +27388,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>123.3422361557313</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>163.0207600383523</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>133.8208662910791</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,19 +27546,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>43.64036029338197</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27594,16 +27594,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>30.93291933203892</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>203.8432716137823</v>
-      </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>98.94636677641765</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>51.61795353082422</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>55.8769876502509</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>8.100357516832219</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28065,16 +28065,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>96.68503059263386</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>157.4983735401877</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-2.120263810372943e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28269,7 +28269,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>2.98632585327141e-12</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -28582,7 +28582,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-3.926445029000922e-14</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855713</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30286,7 +30286,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34533,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>365.2844632307148</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35264,13 +35264,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>363.8358297686019</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556852</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,7 +35650,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109079</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221117</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>255.450348864514</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>366.1055152450488</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,13 +35963,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>702.5357390731098</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980129</v>
@@ -35978,10 +35978,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36121,7 +36121,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>522.1968161642595</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36367,7 +36367,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
         <v>713.1546070951472</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>269.8956035973785</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504663</v>
@@ -36449,16 +36449,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,25 +36677,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>282.0391115195485</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523311</v>
+        <v>280.6254601782252</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412277</v>
+        <v>67.71102679412266</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584678</v>
+        <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084858</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075298</v>
+        <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341609</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491601</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.586857240358</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.428956600432</v>
+        <v>94.42895660043189</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,16 +37145,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>354.1326152325991</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
@@ -37163,13 +37163,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
@@ -37397,16 +37397,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523311</v>
+        <v>492.1965505854578</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37561,10 +37561,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L40" t="n">
         <v>318.3460770095692</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>269.888074221356</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38017,28 +38017,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>294.2627707717784</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
